--- a/09_MPEC_Bidding_Diagonalization/MatlabCode/V02/Test_02/Renewable Production.xlsx
+++ b/09_MPEC_Bidding_Diagonalization/MatlabCode/V02/Test_02/Renewable Production.xlsx
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.465967568053007</v>
+        <v>0.0009693775933203222</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08344811754779587</v>
+        <v>2.854669803417234e-05</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -616,22 +616,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>4.29955346188477</v>
+        <v>0.001598872014592819</v>
       </c>
       <c r="U2" t="n">
-        <v>9.635951934679422</v>
+        <v>0.003510858512411381</v>
       </c>
       <c r="V2" t="n">
-        <v>11.87539331944504</v>
+        <v>0.004293365647424563</v>
       </c>
       <c r="W2" t="n">
-        <v>9.278583354503368</v>
+        <v>0.003374087480832711</v>
       </c>
       <c r="X2" t="n">
-        <v>3.991887802976927</v>
+        <v>0.001457185843249024</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.872337986534667</v>
+        <v>0.002068753603322121</v>
       </c>
     </row>
     <row r="3">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.720215963077151</v>
+        <v>0.000912996346243991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09599643040462642</v>
+        <v>2.917636473269975e-05</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -695,22 +695,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>4.475696179452798</v>
+        <v>0.001454311427198444</v>
       </c>
       <c r="U3" t="n">
-        <v>10.64441729115643</v>
+        <v>0.003436029569160604</v>
       </c>
       <c r="V3" t="n">
-        <v>12.33255482416732</v>
+        <v>0.004019442911189411</v>
       </c>
       <c r="W3" t="n">
-        <v>10.50795974876319</v>
+        <v>0.003338613370778783</v>
       </c>
       <c r="X3" t="n">
-        <v>4.507684176438029</v>
+        <v>0.001472201656177217</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.539588437185642</v>
+        <v>0.001957233050876802</v>
       </c>
     </row>
     <row r="4">
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.550641266628307</v>
+        <v>0.0008280867362189944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08407947429468947</v>
+        <v>2.697947059339759e-05</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>4.331375607971347</v>
+        <v>0.00147081633133121</v>
       </c>
       <c r="U4" t="n">
-        <v>10.08419003608426</v>
+        <v>0.003249356206234723</v>
       </c>
       <c r="V4" t="n">
-        <v>12.9261975063842</v>
+        <v>0.004521870625854451</v>
       </c>
       <c r="W4" t="n">
-        <v>10.05143535178016</v>
+        <v>0.003057659421472096</v>
       </c>
       <c r="X4" t="n">
-        <v>4.356192108920554</v>
+        <v>0.001396345370537505</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.182926383345353</v>
+        <v>0.002046111407506982</v>
       </c>
     </row>
     <row r="5">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.786332948976058</v>
+        <v>0.0008847607066296179</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09191613272603784</v>
+        <v>3.074157787046773e-05</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>4.427685692455807</v>
+        <v>0.001470878239195645</v>
       </c>
       <c r="U5" t="n">
-        <v>10.71867286321912</v>
+        <v>0.003921511909518988</v>
       </c>
       <c r="V5" t="n">
-        <v>12.60633427911321</v>
+        <v>0.00438484883346001</v>
       </c>
       <c r="W5" t="n">
-        <v>9.699402033325139</v>
+        <v>0.003549652370936012</v>
       </c>
       <c r="X5" t="n">
-        <v>4.37176559788542</v>
+        <v>0.001472452344913136</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.339256524370449</v>
+        <v>0.00211314452146437</v>
       </c>
     </row>
     <row r="6">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.635358197422334</v>
+        <v>0.0008470815481422077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08689628863982699</v>
+        <v>2.792102376497027e-05</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -932,22 +932,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>4.395766866653283</v>
+        <v>0.00132669558929608</v>
       </c>
       <c r="U6" t="n">
-        <v>10.49502885577053</v>
+        <v>0.003137345550451177</v>
       </c>
       <c r="V6" t="n">
-        <v>13.10870819514067</v>
+        <v>0.003973738669338808</v>
       </c>
       <c r="W6" t="n">
-        <v>9.594876730394846</v>
+        <v>0.00302258616162774</v>
       </c>
       <c r="X6" t="n">
-        <v>4.219628452225166</v>
+        <v>0.001244613131582719</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.960612792275098</v>
+        <v>0.001890210744868065</v>
       </c>
     </row>
     <row r="7">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.645084187096817</v>
+        <v>0.0009318547972387424</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08752297095918742</v>
+        <v>3.043018131074114e-05</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1011,22 +1011,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>4.299544707522956</v>
+        <v>0.001454133322782344</v>
       </c>
       <c r="U7" t="n">
-        <v>9.972215120287302</v>
+        <v>0.003585513961208218</v>
       </c>
       <c r="V7" t="n">
-        <v>12.74343581303488</v>
+        <v>0.004293448944621191</v>
       </c>
       <c r="W7" t="n">
-        <v>9.911282364055614</v>
+        <v>0.003373633529340778</v>
       </c>
       <c r="X7" t="n">
-        <v>4.386485000028706</v>
+        <v>0.001396226087733105</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.960409704608824</v>
+        <v>0.002001719713820088</v>
       </c>
     </row>
     <row r="8">
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.795131404062682</v>
+        <v>0.0008376320726024521</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09474445507095366</v>
+        <v>2.791969968458532e-05</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1090,22 +1090,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4.475334608280817</v>
+        <v>0.00142254366276033</v>
       </c>
       <c r="U8" t="n">
-        <v>11.31666209697386</v>
+        <v>0.003473505920501494</v>
       </c>
       <c r="V8" t="n">
-        <v>14.06812636610789</v>
+        <v>0.004110708362287142</v>
       </c>
       <c r="W8" t="n">
-        <v>10.64948384087215</v>
+        <v>0.0028466991308635</v>
       </c>
       <c r="X8" t="n">
-        <v>4.31042789820542</v>
+        <v>0.001350676690841316</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.561751130056704</v>
+        <v>0.001913062190079435</v>
       </c>
     </row>
     <row r="9">
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.597865228774008</v>
+        <v>0.0008847066443108974</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0884690457281623</v>
+        <v>2.917475698400801e-05</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1169,22 +1169,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>4.460246296508145</v>
+        <v>0.001487033081776574</v>
       </c>
       <c r="U9" t="n">
-        <v>10.27078527896389</v>
+        <v>0.00351075557419271</v>
       </c>
       <c r="V9" t="n">
-        <v>12.42382611146283</v>
+        <v>0.004247872424458329</v>
       </c>
       <c r="W9" t="n">
-        <v>9.594449708788773</v>
+        <v>0.003233661210354325</v>
       </c>
       <c r="X9" t="n">
-        <v>4.310615881586268</v>
+        <v>0.001472226229173472</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.428175328500448</v>
+        <v>0.002180103531207345</v>
       </c>
     </row>
     <row r="10">
@@ -1194,10 +1194,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.701045005238264</v>
+        <v>0.0008940221812809426</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09129265430401289</v>
+        <v>2.635070842685834e-05</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>4.746558554331074</v>
+        <v>0.001358898604112545</v>
       </c>
       <c r="U10" t="n">
-        <v>10.68175079440404</v>
+        <v>0.003286734873177841</v>
       </c>
       <c r="V10" t="n">
-        <v>13.10889677678653</v>
+        <v>0.004247821360341585</v>
       </c>
       <c r="W10" t="n">
-        <v>9.664637794876951</v>
+        <v>0.003022683523006479</v>
       </c>
       <c r="X10" t="n">
-        <v>4.249857371324989</v>
+        <v>0.001290111381502321</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.428319058031446</v>
+        <v>0.001846243986435675</v>
       </c>
     </row>
   </sheetData>
